--- a/SubwayData/Excel/수인분당선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/수인분당선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E809A1-AB5F-6742-8512-1120D8BDF98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AA09A7-5377-C34B-AAF3-7557AF203F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{2CCF8394-7AF0-4B4C-9C31-1EC1F7EA377C}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>강남구청</t>
   </si>
   <si>
-    <t>선정릉(한국과학창의재단)</t>
-  </si>
-  <si>
     <t>선릉</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>수서</t>
   </si>
   <si>
-    <t>복정(동서울대학)</t>
-  </si>
-  <si>
     <t>가천대</t>
   </si>
   <si>
@@ -112,27 +106,15 @@
     <t>야탑</t>
   </si>
   <si>
-    <t>이매(성남아트센터)</t>
-  </si>
-  <si>
     <t>서현</t>
   </si>
   <si>
-    <t>수내(한국잡월드)</t>
-  </si>
-  <si>
     <t>정자</t>
   </si>
   <si>
-    <t>미금(분당서울대병원)</t>
-  </si>
-  <si>
     <t>오리</t>
   </si>
   <si>
-    <t>죽전(단국대)</t>
-  </si>
-  <si>
     <t>보정</t>
   </si>
   <si>
@@ -142,27 +124,15 @@
     <t>신갈</t>
   </si>
   <si>
-    <t>기흥(백남준아트센터)</t>
-  </si>
-  <si>
-    <t>상갈(루터대학교)</t>
-  </si>
-  <si>
     <t>청명</t>
   </si>
   <si>
-    <t>영통(경희대)</t>
-  </si>
-  <si>
     <t>망포</t>
   </si>
   <si>
     <t>매탄권선</t>
   </si>
   <si>
-    <t>수원시청(경기도문화의전당)</t>
-  </si>
-  <si>
     <t>매교</t>
   </si>
   <si>
@@ -238,13 +208,54 @@
     <t>인하대</t>
   </si>
   <si>
-    <t>숭의(인하대병원)</t>
-  </si>
-  <si>
     <t>신포</t>
   </si>
   <si>
     <t>인천</t>
+  </si>
+  <si>
+    <t>선정릉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기흥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상갈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원시청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숭의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -671,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F573AF9E-ACAE-CA4A-AB75-F4F3A510F5E6}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H25"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -772,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3">
         <v>0.7</v>
@@ -786,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <v>0.7</v>
@@ -800,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
         <v>1.1000000000000001</v>
@@ -814,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>0.7</v>
@@ -828,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>0.6</v>
@@ -842,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>0.7</v>
@@ -856,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>0.6</v>
@@ -870,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>3.2</v>
@@ -884,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3">
         <v>3.2</v>
@@ -898,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>2.4</v>
@@ -912,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -926,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3">
         <v>0.9</v>
@@ -940,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3">
         <v>2.2999999999999998</v>
@@ -954,7 +965,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3">
         <v>1.7</v>
@@ -968,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3">
         <v>1.4</v>
@@ -982,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3">
         <v>1.1000000000000001</v>
@@ -996,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
         <v>1.6</v>
@@ -1010,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3">
         <v>1.8</v>
@@ -1024,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
         <v>1.1000000000000001</v>
@@ -1038,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3">
         <v>1.8</v>
@@ -1052,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3">
         <v>1.3</v>
@@ -1066,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3">
         <v>1.6</v>
@@ -1080,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3">
         <v>1.6</v>
@@ -1094,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D30" s="3">
         <v>1.4</v>
@@ -1108,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D31" s="3">
         <v>1.9</v>
@@ -1122,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>2.8</v>
@@ -1136,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D33" s="3">
         <v>1.1000000000000001</v>
@@ -1150,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3">
         <v>1.5</v>
@@ -1164,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D35" s="3">
         <v>1.8</v>
@@ -1178,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D36" s="3">
         <v>1.4</v>
@@ -1192,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D37" s="3">
         <v>1.4</v>
@@ -1206,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D38" s="3">
         <v>1.5</v>
@@ -1220,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D39" s="3">
         <v>2.7</v>
@@ -1234,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D40" s="3">
         <v>1.6</v>
@@ -1248,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>5.0999999999999996</v>
@@ -1262,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>2.6</v>
@@ -1276,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>4.7</v>
@@ -1290,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>2.4</v>
@@ -1304,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>1.6</v>
@@ -1318,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>1.6</v>
@@ -1332,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>1.5</v>
@@ -1346,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>1.8</v>
@@ -1360,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D49" s="4">
         <v>2.9</v>
@@ -1374,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D50" s="4">
         <v>1.4</v>
@@ -1388,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D51" s="4">
         <v>2.1</v>
@@ -1402,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>2.1</v>
@@ -1416,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D53" s="3">
         <v>1.5</v>
@@ -1430,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D54" s="3">
         <v>1.3</v>
@@ -1444,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D55" s="3">
         <v>1</v>
@@ -1458,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D56" s="3">
         <v>1.3</v>
@@ -1472,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>1.3</v>
@@ -1486,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -1500,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0.9</v>
@@ -1514,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D60" s="3">
         <v>2.7</v>
@@ -1528,7 +1539,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D61" s="3">
         <v>2.4</v>
@@ -1542,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D62" s="3">
         <v>1.8</v>
@@ -1556,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D63" s="3">
         <v>1.5</v>
@@ -1570,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D64" s="3">
         <v>1.1000000000000001</v>
